--- a/Arduino pin layout.xlsx
+++ b/Arduino pin layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Classroom\TI Project 1 Kookplaat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Arduino_Kookplaat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>TOTAL</t>
   </si>
@@ -102,6 +102,54 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -224,6 +272,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1" descr="Afbeeldingsresultaat voor 7 segment display"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2352675" y="47625"/>
+          <a:ext cx="2095500" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2" descr="Afbeeldingsresultaat voor 4 digit 7 segment display"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4705350" y="76200"/>
+          <a:ext cx="3638550" cy="2510375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,7 +689,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -586,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -653,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -662,7 +825,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1</v>
@@ -757,29 +973,29 @@
         <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3">
         <f>((K17*K16)+(L17*L16)+(M17*M16)+(N17*N16)+(O17*O16)+(P17*P16)+(Q17*Q16)+(R17*R16))+J17</f>
-        <v>448</v>
+        <v>65472</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1333,5 +1549,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>